--- a/biology/Zoologie/Hemigrapsus_penicillatus/Hemigrapsus_penicillatus.xlsx
+++ b/biology/Zoologie/Hemigrapsus_penicillatus/Hemigrapsus_penicillatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemigrapsus penicillatus est une espèce de crabe de la famille des Varunidae. Originaire d'Asie, il a été introduit en Europe et pourrait devenir une espèce invasive[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemigrapsus penicillatus est une espèce de crabe de la famille des Varunidae. Originaire d'Asie, il a été introduit en Europe et pourrait devenir une espèce invasive.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été involontairement « introduit » dans plusieurs pays du monde par le trafic maritime (dans les eaux de ballast de navires marchands très probablement), mais son aire originelle serait comprise entre l'Extrême-Orient russe (Îles Kouriles et Baie d'Aniva) et les côtes du Japon, de Chine, de Taiwan et de Corée, jusqu'à Hong Kong environ au sud-ouest de cette zone.
-L'espèce a été signalée à Hawaii en 1903 (peut-être à la suite d'une erreur d'identification) et il n'y a pas de signalement actuel de ce crabe dans le centre du Pacifique[2]. Tout comme son cousin H. sanguineus[3], il a été ensuite signalé en Europe et en France, à la Rochelle (en 1994)[4] et dans le port du Havre (1999) notamment [5] mais il s'agirait dans ces cas d'une sous-espèce H. takanoi, qui n'a été distinguée (sur des bases morphologiques et d'électrophorèse) de H. penicillatus qu'en 2005, plusieurs années après sa découverte en Europe[6]. En Europe, « il étend rapidement son aire de distribution est présent actuellement depuis Laredo, Espagne (43°25′N, 03°20′W) jusqu'à Fromentine, France (46°53′N, 02°09′W) dans les zones abritées de la zone médiolittorale. Il est localement abondant, avec une densité atteignant 10 à 20 individus par mètre carré ». Il est présent au Royaume-Uni[7] et signalé aux Pays-Bas en 2000[8],[9],[10],[11].
+L'espèce a été signalée à Hawaii en 1903 (peut-être à la suite d'une erreur d'identification) et il n'y a pas de signalement actuel de ce crabe dans le centre du Pacifique. Tout comme son cousin H. sanguineus, il a été ensuite signalé en Europe et en France, à la Rochelle (en 1994) et dans le port du Havre (1999) notamment  mais il s'agirait dans ces cas d'une sous-espèce H. takanoi, qui n'a été distinguée (sur des bases morphologiques et d'électrophorèse) de H. penicillatus qu'en 2005, plusieurs années après sa découverte en Europe. En Europe, « il étend rapidement son aire de distribution est présent actuellement depuis Laredo, Espagne (43°25′N, 03°20′W) jusqu'à Fromentine, France (46°53′N, 02°09′W) dans les zones abritées de la zone médiolittorale. Il est localement abondant, avec une densité atteignant 10 à 20 individus par mètre carré ». Il est présent au Royaume-Uni et signalé aux Pays-Bas en 2000.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'habitat du crabe Hemigrapsus penicillatus adulte est la zone intertidale là où elle est rocheuse ou vaseuse[2]. Grâce à de bonnes capacités osmorégulatrices il peut aussi vivre dans les eaux estuariennes plus saumâtres[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'habitat du crabe Hemigrapsus penicillatus adulte est la zone intertidale là où elle est rocheuse ou vaseuse. Grâce à de bonnes capacités osmorégulatrices il peut aussi vivre dans les eaux estuariennes plus saumâtres.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme beaucoup d'autres espèces de crabes, il est capable de cannibalisme[13].
-Comme de nombreuses autres espèces nécrophages ou détritiphages ou se nourrissant volontiers dans ou sur les sédiments vaseux, il peut contribuer à la bioconcentration voire à la biomagnification de certains polluants marins toxiques tels que métaux lourds, métalloïdes, organométalliques, organochlorés, radionucléides, etc. dans le réseau trophique[14],[15]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme beaucoup d'autres espèces de crabes, il est capable de cannibalisme.
+Comme de nombreuses autres espèces nécrophages ou détritiphages ou se nourrissant volontiers dans ou sur les sédiments vaseux, il peut contribuer à la bioconcentration voire à la biomagnification de certains polluants marins toxiques tels que métaux lourds, métalloïdes, organométalliques, organochlorés, radionucléides, etc. dans le réseau trophique,
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Écologie, éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Okamoto &amp; al signalent en 1987 une variation saisonnière de la structure des populations de H. penicillatus[16]. Il a aussi été montré que son œil et plus particulièrement son rhabdome s'adapte aux variations de lumière jour/nuit[17]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Okamoto &amp; al signalent en 1987 une variation saisonnière de la structure des populations de H. penicillatus. Il a aussi été montré que son œil et plus particulièrement son rhabdome s'adapte aux variations de lumière jour/nuit
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Parasitoses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut être notamment parasité par Microphallus macrorchis[18]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être notamment parasité par Microphallus macrorchis
 </t>
         </is>
       </c>
@@ -668,9 +690,11 @@
           <t>Élevage en laboratoire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour pouvoir mieux l'étudier, on a réussi à élever ses larves en laboratoire (grâce à des expérimentations conduites des années 1970 au milieu des années 1990[19],[20].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour pouvoir mieux l'étudier, on a réussi à élever ses larves en laboratoire (grâce à des expérimentations conduites des années 1970 au milieu des années 1990,.
 </t>
         </is>
       </c>
